--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okey1\source\repos\TEST_ProductionManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7BC59-3A2E-4DC5-8976-3B6B3AE0E87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59452577-D866-4090-B79C-B835F735FF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3547C1D-9A7F-4EC2-A013-B1CF4255704A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="画面" sheetId="2" r:id="rId2"/>
+    <sheet name="構想" sheetId="1" r:id="rId1"/>
+    <sheet name="必要な技術" sheetId="3" r:id="rId2"/>
+    <sheet name="画面" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>一次</t>
     <rPh sb="0" eb="2">
@@ -306,6 +307,112 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ショヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根幹を用意したあとで品目追加・LTをGUIベースで変更できるようにしたい（ここがオリジナル）</t>
+    <rPh sb="0" eb="2">
+      <t>コンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヒンモクツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成した手配をGUIベースで移動できる機能もほしい</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動したときは従属の手配はすべて再計算</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLでガントチャートを作れること</t>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作ったガントチャートがドラッグアンドドロップで動かせる</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラッグアンドドロップを検知して、イベントを発火させるMVC側に通知</t>
+    <rPh sb="12" eb="14">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックグラウンドで画面に表示したものの警告の可能性がある場所をあらかじめ計算しておけば早い？</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +434,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -433,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +578,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,45 +897,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF3B4C7-B5D9-4ED0-B39B-87F2395270F0}">
-  <dimension ref="A3:K31"/>
+  <dimension ref="A3:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -874,6 +998,21 @@
     <row r="31" spans="3:11" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -884,6 +1023,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B605306-967A-4321-BCA9-2AF9FC53A407}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF85B3E2-DF65-4324-A45B-7A837E72262D}">
   <dimension ref="C4:G12"/>
   <sheetViews>
